--- a/src/SetList.xlsx
+++ b/src/SetList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\BENOPT-HEAT (SmartWirbelschicht)\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martinm\Documents\BENOPT-HEAT (KonditorGas)\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="720" windowWidth="15240" windowHeight="6105"/>
+    <workbookView xWindow="120" yWindow="720" windowWidth="15240" windowHeight="6105" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SetList" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="485">
   <si>
     <t>GasBW+ST</t>
   </si>
@@ -1702,6 +1702,18 @@
   </si>
   <si>
     <t>244 164 96</t>
+  </si>
+  <si>
+    <t>Biomethan-DirektF.-HPR</t>
+  </si>
+  <si>
+    <t>Biomethan-DirektF.-GobiGas</t>
+  </si>
+  <si>
+    <t>Direct biomethane firing HPR</t>
+  </si>
+  <si>
+    <t>Direct biomethane firing GobiGas</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,10 +2078,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma 2" xfId="1"/>
@@ -2377,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,13 +2547,13 @@
       <c r="L2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="95">
-        <v>1</v>
-      </c>
-      <c r="N2" s="62" t="s">
+      <c r="M2" s="78">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="12" t="s">
         <v>300</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -2567,7 +2578,7 @@
       <c r="W2" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="89" t="s">
         <v>306</v>
       </c>
       <c r="Y2" s="12" t="s">
@@ -2587,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="AF2" s="10">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="AH2" s="1">
         <v>1</v>
@@ -2635,13 +2646,13 @@
       <c r="L3" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M3" s="95">
+      <c r="M3" s="78">
         <v>2</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="12" t="s">
         <v>286</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -2651,7 +2662,7 @@
       <c r="R3" s="1">
         <v>2</v>
       </c>
-      <c r="S3" s="89" t="s">
+      <c r="S3" s="12" t="s">
         <v>398</v>
       </c>
       <c r="T3" s="6" t="s">
@@ -2685,8 +2696,8 @@
       <c r="AE3" s="54">
         <v>2</v>
       </c>
-      <c r="AF3" s="10">
-        <v>2016</v>
+      <c r="AF3" s="11">
+        <v>2021</v>
       </c>
       <c r="AH3" s="1">
         <v>2</v>
@@ -2736,13 +2747,13 @@
       <c r="L4" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="95">
+      <c r="M4" s="78">
         <v>3</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="12" t="s">
         <v>278</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -2752,7 +2763,7 @@
       <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="12" t="s">
         <v>399</v>
       </c>
       <c r="T4" s="6" t="s">
@@ -2765,7 +2776,7 @@
       <c r="W4" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="89" t="s">
         <v>385</v>
       </c>
       <c r="Y4" s="12" t="s">
@@ -2785,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="AF4" s="10">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="AH4" s="1">
         <v>3</v>
@@ -2835,13 +2846,13 @@
       <c r="L5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="95">
+      <c r="M5" s="78">
         <v>4</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="N5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="12" t="s">
         <v>287</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -2851,7 +2862,7 @@
       <c r="R5" s="1">
         <v>4</v>
       </c>
-      <c r="S5" s="89" t="s">
+      <c r="S5" s="12" t="s">
         <v>400</v>
       </c>
       <c r="T5" s="6" t="s">
@@ -2861,10 +2872,10 @@
       <c r="V5" s="1">
         <v>4</v>
       </c>
-      <c r="W5" s="92" t="s">
+      <c r="W5" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="89" t="s">
         <v>419</v>
       </c>
       <c r="Y5" s="12" t="s">
@@ -2884,7 +2895,7 @@
         <v>4</v>
       </c>
       <c r="AF5" s="10">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="AH5" s="1">
         <v>4</v>
@@ -2932,13 +2943,13 @@
       <c r="L6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="95">
+      <c r="M6" s="78">
         <v>5</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="12" t="s">
         <v>279</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -2948,7 +2959,7 @@
       <c r="R6" s="1">
         <v>5</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="12" t="s">
         <v>415</v>
       </c>
       <c r="T6" s="6" t="s">
@@ -2958,7 +2969,7 @@
       <c r="V6" s="1">
         <v>5</v>
       </c>
-      <c r="W6" s="92" t="s">
+      <c r="W6" s="91" t="s">
         <v>413</v>
       </c>
       <c r="X6" s="6" t="s">
@@ -2981,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="AF6" s="10">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="AH6" s="1">
         <v>5</v>
@@ -3045,7 +3056,7 @@
       <c r="R7" s="1">
         <v>6</v>
       </c>
-      <c r="S7" s="89" t="s">
+      <c r="S7" s="12" t="s">
         <v>401</v>
       </c>
       <c r="T7" s="6" t="s">
@@ -3055,7 +3066,7 @@
       <c r="V7" s="1">
         <v>6</v>
       </c>
-      <c r="W7" s="92" t="s">
+      <c r="W7" s="91" t="s">
         <v>416</v>
       </c>
       <c r="X7" s="6" t="s">
@@ -3078,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="AF7" s="10">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="AH7" s="1">
         <v>6</v>
@@ -3142,7 +3153,7 @@
       <c r="R8" s="1">
         <v>7</v>
       </c>
-      <c r="S8" s="89" t="s">
+      <c r="S8" s="12" t="s">
         <v>402</v>
       </c>
       <c r="T8" s="6" t="s">
@@ -3174,8 +3185,8 @@
       <c r="AE8" s="20">
         <v>7</v>
       </c>
-      <c r="AF8" s="11">
-        <v>2021</v>
+      <c r="AF8" s="10">
+        <v>2026</v>
       </c>
       <c r="AH8" s="1">
         <v>7</v>
@@ -3233,7 +3244,7 @@
       <c r="R9" s="1">
         <v>8</v>
       </c>
-      <c r="S9" s="89" t="s">
+      <c r="S9" s="12" t="s">
         <v>403</v>
       </c>
       <c r="T9" s="6" t="s">
@@ -3260,7 +3271,7 @@
         <v>8</v>
       </c>
       <c r="AF9" s="10">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="AH9" s="1">
         <v>8</v>
@@ -3318,7 +3329,7 @@
       <c r="R10" s="1">
         <v>9</v>
       </c>
-      <c r="S10" s="89" t="s">
+      <c r="S10" s="12" t="s">
         <v>404</v>
       </c>
       <c r="T10" s="6" t="s">
@@ -3344,8 +3355,8 @@
       <c r="AE10" s="54">
         <v>9</v>
       </c>
-      <c r="AF10" s="10">
-        <v>2023</v>
+      <c r="AF10" s="11">
+        <v>2028</v>
       </c>
       <c r="AH10" s="1">
         <v>9</v>
@@ -3403,7 +3414,7 @@
       <c r="R11" s="1">
         <v>10</v>
       </c>
-      <c r="S11" s="96" t="s">
+      <c r="S11" s="60" t="s">
         <v>468</v>
       </c>
       <c r="T11" s="60" t="s">
@@ -3429,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="AF11" s="10">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="AH11" s="1">
         <v>10</v>
@@ -3503,7 +3514,7 @@
         <v>11</v>
       </c>
       <c r="AF12" s="10">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="AH12" s="1">
         <v>11</v>
@@ -3581,7 +3592,7 @@
         <v>12</v>
       </c>
       <c r="AF13" s="10">
-        <v>2026</v>
+        <v>2031</v>
       </c>
       <c r="AH13" s="1">
         <v>12</v>
@@ -3655,7 +3666,7 @@
         <v>13</v>
       </c>
       <c r="AF14" s="10">
-        <v>2027</v>
+        <v>2032</v>
       </c>
       <c r="AH14" s="1">
         <v>13</v>
@@ -3729,8 +3740,8 @@
       <c r="AE15" s="20">
         <v>14</v>
       </c>
-      <c r="AF15" s="11">
-        <v>2028</v>
+      <c r="AF15" s="10">
+        <v>2033</v>
       </c>
       <c r="AH15" s="1">
         <v>14</v>
@@ -3797,7 +3808,7 @@
         <v>15</v>
       </c>
       <c r="AF16" s="10">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="AH16" s="1">
         <v>15</v>
@@ -3865,8 +3876,8 @@
       <c r="AE17" s="54">
         <v>16</v>
       </c>
-      <c r="AF17" s="10">
-        <v>2030</v>
+      <c r="AF17" s="11">
+        <v>2035</v>
       </c>
       <c r="AH17" s="1">
         <v>16</v>
@@ -3925,7 +3936,7 @@
       <c r="W18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="X18" s="89" t="s">
         <v>52</v>
       </c>
       <c r="Y18" s="7" t="s">
@@ -3935,7 +3946,7 @@
         <v>17</v>
       </c>
       <c r="AF18" s="10">
-        <v>2031</v>
+        <v>2036</v>
       </c>
       <c r="AH18" s="1">
         <v>17</v>
@@ -4002,7 +4013,7 @@
         <v>18</v>
       </c>
       <c r="AF19" s="10">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="AH19" s="1">
         <v>18</v>
@@ -4069,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="AF20" s="10">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="AH20" s="1">
         <v>19</v>
@@ -4130,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="AF21" s="10">
-        <v>2034</v>
+        <v>2039</v>
       </c>
       <c r="AH21" s="1">
         <v>20</v>
@@ -4188,8 +4199,8 @@
       <c r="AE22" s="20">
         <v>21</v>
       </c>
-      <c r="AF22" s="11">
-        <v>2035</v>
+      <c r="AF22" s="10">
+        <v>2040</v>
       </c>
       <c r="AH22" s="1">
         <v>21</v>
@@ -4248,7 +4259,7 @@
         <v>22</v>
       </c>
       <c r="AF23" s="10">
-        <v>2036</v>
+        <v>2041</v>
       </c>
       <c r="AH23" s="1">
         <v>22</v>
@@ -4295,8 +4306,8 @@
       <c r="AE24" s="54">
         <v>23</v>
       </c>
-      <c r="AF24" s="10">
-        <v>2037</v>
+      <c r="AF24" s="11">
+        <v>2042</v>
       </c>
       <c r="AH24" s="1">
         <v>23</v>
@@ -4342,7 +4353,7 @@
         <v>24</v>
       </c>
       <c r="AF25" s="10">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="AH25" s="1">
         <v>24</v>
@@ -4388,7 +4399,7 @@
         <v>25</v>
       </c>
       <c r="AF26" s="10">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="AH26" s="1">
         <v>25</v>
@@ -4434,7 +4445,7 @@
         <v>26</v>
       </c>
       <c r="AF27" s="10">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="AH27" s="1">
         <v>26</v>
@@ -4480,7 +4491,7 @@
         <v>27</v>
       </c>
       <c r="AF28" s="10">
-        <v>2041</v>
+        <v>2046</v>
       </c>
       <c r="AH28" s="1">
         <v>27</v>
@@ -4527,8 +4538,8 @@
       <c r="AE29" s="20">
         <v>28</v>
       </c>
-      <c r="AF29" s="11">
-        <v>2042</v>
+      <c r="AF29" s="10">
+        <v>2047</v>
       </c>
       <c r="AH29" s="1">
         <v>28</v>
@@ -4564,7 +4575,7 @@
         <v>29</v>
       </c>
       <c r="AF30" s="10">
-        <v>2043</v>
+        <v>2048</v>
       </c>
       <c r="AH30" s="1">
         <v>29</v>
@@ -4595,8 +4606,8 @@
       <c r="AE31" s="54">
         <v>30</v>
       </c>
-      <c r="AF31" s="10">
-        <v>2044</v>
+      <c r="AF31" s="11">
+        <v>2049</v>
       </c>
       <c r="AH31" s="1">
         <v>30</v>
@@ -4626,7 +4637,7 @@
         <v>31</v>
       </c>
       <c r="AF32" s="10">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="AH32" s="1">
         <v>31</v>
@@ -4652,12 +4663,7 @@
       <c r="D33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AE33" s="20">
-        <v>32</v>
-      </c>
-      <c r="AF33" s="10">
-        <v>2046</v>
-      </c>
+      <c r="AE33" s="20"/>
       <c r="AH33" s="1">
         <v>32</v>
       </c>
@@ -4682,12 +4688,7 @@
       <c r="D34" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="AE34" s="20">
-        <v>33</v>
-      </c>
-      <c r="AF34" s="10">
-        <v>2047</v>
-      </c>
+      <c r="AE34" s="20"/>
       <c r="AH34" s="1">
         <v>33</v>
       </c>
@@ -4714,12 +4715,7 @@
       <c r="D35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AE35" s="20">
-        <v>34</v>
-      </c>
-      <c r="AF35" s="10">
-        <v>2048</v>
-      </c>
+      <c r="AE35" s="20"/>
       <c r="AH35" s="1">
         <v>34</v>
       </c>
@@ -4744,12 +4740,7 @@
       <c r="D36" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AE36" s="20">
-        <v>35</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>2049</v>
-      </c>
+      <c r="AE36" s="20"/>
       <c r="AH36" s="1">
         <v>35</v>
       </c>
@@ -4774,12 +4765,7 @@
       <c r="D37" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="AE37" s="54">
-        <v>36</v>
-      </c>
-      <c r="AF37" s="10">
-        <v>2050</v>
-      </c>
+      <c r="AE37" s="54"/>
       <c r="AH37" s="1">
         <v>36</v>
       </c>
@@ -5193,6 +5179,34 @@
       </c>
       <c r="D57" s="12" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="2:35" x14ac:dyDescent="0.25">
@@ -5214,7 +5228,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,7 +5327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="136.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="139.5" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="83" t="s">
         <v>395</v>
@@ -5992,11 +6006,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF34"/>
+  <dimension ref="A1:BH34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="BG2" sqref="BG2:BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6004,10 +6018,10 @@
     <col min="1" max="1" width="5.85546875" style="54" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="49" width="4.140625" customWidth="1"/>
-    <col min="50" max="58" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="60" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B1" s="56"/>
       <c r="C1" s="1">
         <v>1</v>
@@ -6177,8 +6191,14 @@
       <c r="BF1" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="83" t="s">
         <v>128</v>
@@ -6348,8 +6368,14 @@
       <c r="BF2" s="83" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG2" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="BH2" s="83" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>1</v>
       </c>
@@ -6446,8 +6472,14 @@
       <c r="BF3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>2</v>
       </c>
@@ -6516,8 +6548,10 @@
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>3</v>
       </c>
@@ -6612,8 +6646,14 @@
       <c r="BF5" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG5" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>4</v>
       </c>
@@ -6710,8 +6750,14 @@
       <c r="BF6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG6" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>5</v>
       </c>
@@ -6782,8 +6828,10 @@
       <c r="BD7" s="6"/>
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
-    </row>
-    <row r="8" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+    </row>
+    <row r="8" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>6</v>
       </c>
@@ -6848,8 +6896,10 @@
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>7</v>
       </c>
@@ -6920,8 +6970,10 @@
       <c r="BD9" s="6"/>
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>8</v>
       </c>
@@ -7012,8 +7064,10 @@
       <c r="BD10" s="6"/>
       <c r="BE10" s="6"/>
       <c r="BF10" s="6"/>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>9</v>
       </c>
@@ -7104,8 +7158,10 @@
       <c r="BD11" s="6"/>
       <c r="BE11" s="6"/>
       <c r="BF11" s="6"/>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>10</v>
       </c>
@@ -7196,8 +7252,10 @@
       <c r="BD12" s="6"/>
       <c r="BE12" s="6"/>
       <c r="BF12" s="6"/>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>11</v>
       </c>
@@ -7288,8 +7346,10 @@
       <c r="BD13" s="6"/>
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>12</v>
       </c>
@@ -7372,8 +7432,10 @@
       <c r="BD14" s="6"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
-    </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>13</v>
       </c>
@@ -7442,8 +7504,10 @@
       <c r="BD15" s="6"/>
       <c r="BE15" s="6"/>
       <c r="BF15" s="6"/>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>14</v>
       </c>
@@ -7534,8 +7598,10 @@
       <c r="BF16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG16" s="6"/>
+      <c r="BH16" s="6"/>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>15</v>
       </c>
@@ -7608,8 +7674,10 @@
       <c r="BD17" s="6"/>
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>16</v>
       </c>
@@ -7672,8 +7740,10 @@
       <c r="BD18" s="6"/>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>17</v>
       </c>
@@ -7758,8 +7828,14 @@
       <c r="BF19" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG19" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>18</v>
       </c>
@@ -7850,8 +7926,10 @@
       <c r="BD20" s="6"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>19</v>
       </c>
@@ -7942,8 +8020,10 @@
       <c r="BD21" s="6"/>
       <c r="BE21" s="6"/>
       <c r="BF21" s="6"/>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>20</v>
       </c>
@@ -8034,8 +8114,10 @@
       <c r="BD22" s="6"/>
       <c r="BE22" s="6"/>
       <c r="BF22" s="6"/>
-    </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>21</v>
       </c>
@@ -8126,8 +8208,10 @@
       <c r="BD23" s="6"/>
       <c r="BE23" s="6"/>
       <c r="BF23" s="6"/>
-    </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>22</v>
       </c>
@@ -8218,8 +8302,10 @@
       <c r="BD24" s="6"/>
       <c r="BE24" s="6"/>
       <c r="BF24" s="6"/>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>23</v>
       </c>
@@ -8310,8 +8396,10 @@
       <c r="BD25" s="6"/>
       <c r="BE25" s="6"/>
       <c r="BF25" s="6"/>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG25" s="6"/>
+      <c r="BH25" s="6"/>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>24</v>
       </c>
@@ -8400,8 +8488,10 @@
       <c r="BD26" s="6"/>
       <c r="BE26" s="6"/>
       <c r="BF26" s="6"/>
-    </row>
-    <row r="27" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG26" s="6"/>
+      <c r="BH26" s="6"/>
+    </row>
+    <row r="27" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>25</v>
       </c>
@@ -8472,8 +8562,10 @@
       <c r="BD27" s="6"/>
       <c r="BE27" s="6"/>
       <c r="BF27" s="6"/>
-    </row>
-    <row r="28" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+    </row>
+    <row r="28" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>26</v>
       </c>
@@ -8538,8 +8630,10 @@
       <c r="BD28" s="6"/>
       <c r="BE28" s="6"/>
       <c r="BF28" s="6"/>
-    </row>
-    <row r="29" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG28" s="6"/>
+      <c r="BH28" s="6"/>
+    </row>
+    <row r="29" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>27</v>
       </c>
@@ -8614,8 +8708,10 @@
       <c r="BF29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG29" s="6"/>
+      <c r="BH29" s="6"/>
+    </row>
+    <row r="30" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>28</v>
       </c>
@@ -8690,8 +8786,10 @@
       <c r="BF30" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG30" s="6"/>
+      <c r="BH30" s="6"/>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>68</v>
       </c>
@@ -8743,7 +8841,7 @@
       <c r="AV31" s="54"/>
       <c r="AW31" s="54"/>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
@@ -8809,20 +8907,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF9"/>
+  <dimension ref="A1:BH9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2:BF2"/>
+      <selection activeCell="BG2" sqref="BG2:BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="54" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="60" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1</v>
       </c>
@@ -8991,8 +9089,14 @@
       <c r="BF1" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" ht="113.25" x14ac:dyDescent="0.25">
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" ht="141" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="83" t="s">
         <v>128</v>
@@ -9162,8 +9266,14 @@
       <c r="BF2" s="83" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG2" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="BH2" s="83" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>1</v>
       </c>
@@ -9338,8 +9448,14 @@
       <c r="BF3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BG3" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>2</v>
       </c>
@@ -9422,8 +9538,14 @@
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>3</v>
       </c>
@@ -9526,8 +9648,10 @@
       <c r="BD5" s="6"/>
       <c r="BE5" s="6"/>
       <c r="BF5" s="6"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>4</v>
       </c>
@@ -9626,8 +9750,10 @@
       <c r="BD6" s="6"/>
       <c r="BE6" s="6"/>
       <c r="BF6" s="6"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>5</v>
       </c>
@@ -9742,8 +9868,10 @@
       <c r="BF7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>6</v>
       </c>
@@ -9852,8 +9980,10 @@
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>7</v>
       </c>
@@ -9948,6 +10078,8 @@
       <c r="BD9" s="6"/>
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9956,10 +10088,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53:R58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11127,7 +11259,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="62">
+      <c r="R32" s="12">
         <v>1</v>
       </c>
       <c r="S32" s="6"/>
@@ -11156,7 +11288,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="62">
+      <c r="R33" s="12">
         <v>1</v>
       </c>
       <c r="S33" s="6"/>
@@ -11185,7 +11317,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="62">
+      <c r="R34" s="12">
         <v>1</v>
       </c>
       <c r="S34" s="6"/>
@@ -11214,7 +11346,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="62">
+      <c r="R35" s="12">
         <v>1</v>
       </c>
       <c r="S35" s="6">
@@ -11245,7 +11377,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="62">
+      <c r="R36" s="12">
         <v>1</v>
       </c>
       <c r="S36" s="6"/>
@@ -11274,7 +11406,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
-      <c r="R37" s="62">
+      <c r="R37" s="12">
         <v>1</v>
       </c>
       <c r="S37" s="6"/>
@@ -11421,7 +11553,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="62">
+      <c r="T42" s="12">
         <v>1</v>
       </c>
       <c r="U42" s="6"/>
@@ -11450,7 +11582,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="62">
+      <c r="T43" s="12">
         <v>1</v>
       </c>
       <c r="U43" s="6"/>
@@ -11479,7 +11611,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="62">
+      <c r="T44" s="12">
         <v>1</v>
       </c>
       <c r="U44" s="6"/>
@@ -11508,7 +11640,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="62">
+      <c r="T45" s="12">
         <v>1</v>
       </c>
       <c r="U45" s="6"/>
@@ -11890,6 +12022,64 @@
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
     </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6">
+        <v>1</v>
+      </c>
+      <c r="U59" s="6"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6">
+        <v>1</v>
+      </c>
+      <c r="U60" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11898,23 +12088,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF11"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB12" sqref="BB12"/>
+      <selection pane="bottomRight" activeCell="BH14" sqref="BH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="54" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="54" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="54"/>
+    <col min="3" max="6" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="6.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="6.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="49" max="53" width="6.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="56" max="60" width="6.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="11.42578125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1</v>
       </c>
@@ -12059,179 +12270,215 @@
       <c r="AX1" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" ht="45" x14ac:dyDescent="0.25">
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" ht="141" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AE2" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AY2" s="83" t="s">
         <v>448</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AZ2" s="83" t="s">
         <v>449</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BA2" s="83" t="s">
         <v>450</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BB2" s="83" t="s">
         <v>451</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BC2" s="83" t="s">
         <v>452</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BD2" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BE2" s="83" t="s">
         <v>454</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BF2" s="83" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG2" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="BH2" s="83" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>1</v>
       </c>
@@ -12356,8 +12603,14 @@
       <c r="BF3" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>2</v>
       </c>
@@ -12446,8 +12699,10 @@
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>3</v>
       </c>
@@ -12540,8 +12795,10 @@
       <c r="BD5" s="6"/>
       <c r="BE5" s="6"/>
       <c r="BF5" s="6"/>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -12622,8 +12879,10 @@
       <c r="BD6" s="6"/>
       <c r="BE6" s="6"/>
       <c r="BF6" s="6"/>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -12713,8 +12972,10 @@
       <c r="BD7" s="6"/>
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -12783,8 +13044,10 @@
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -12857,17 +13120,20 @@
       <c r="BD9" s="6"/>
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="72"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12877,14 +13143,19 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX8" sqref="AX8"/>
+      <selection pane="topRight" activeCell="BC4" sqref="BC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="56" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="56" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="56"/>
+    <col min="3" max="27" width="4.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.42578125" style="56" customWidth="1"/>
+    <col min="30" max="31" width="3.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="32" max="50" width="4.140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -13033,150 +13304,150 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="85" t="s">
         <v>186</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="59" t="s">
+      <c r="AC2" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="AD2" s="59" t="s">
+      <c r="AD2" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="AE2" s="59" t="s">
+      <c r="AE2" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI2" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AV2" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AW2" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AX2" s="85" t="s">
         <v>423</v>
       </c>
     </row>
